--- a/issue157/ig/StructureDefinition-esms-consent.xlsx
+++ b/issue157/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T07:50:08+00:00</t>
+    <t>2024-04-15T11:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issue157/ig/StructureDefinition-esms-consent.xlsx
+++ b/issue157/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T11:06:12+00:00</t>
+    <t>2024-04-15T11:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
